--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/99/word_level_predictions_99.xlsx
@@ -814,730 +814,730 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2426,418 +2426,418 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" t="n">
         <v>3</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" t="n">
         <v>3</v>
       </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" t="n">
         <v>3</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" t="n">
         <v>4</v>
       </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" t="n">
         <v>3</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" t="n">
         <v>5</v>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" t="n">
         <v>3</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" t="n">
         <v>6</v>
       </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>3</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" t="n">
         <v>7</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" t="n">
         <v>8</v>
       </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" t="n">
         <v>3</v>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" t="n">
         <v>9</v>
       </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" t="n">
         <v>10</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2894,470 +2894,470 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Recorder</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>4</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>4</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Recorder</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>4</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>4</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>5</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>4</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Index</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>6</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>7</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>4</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>8</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18130,106 +18130,106 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
+      <c r="A341" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="B341" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C341" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" t="n">
+      <c r="D341" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="E341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" t="b">
-        <v>1</v>
-      </c>
-      <c r="J341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K341" t="b">
-        <v>1</v>
-      </c>
-      <c r="L341" t="inlineStr">
+      <c r="G341" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J341" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L341" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
+      <c r="A342" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B342" t="inlineStr">
+      <c r="B342" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="C342" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" t="n">
+      <c r="D342" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E342" t="inlineStr">
+      <c r="E342" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" t="b">
-        <v>1</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K342" t="b">
-        <v>1</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F342" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G342" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J342" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L342" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="2" t="n">
+      <c r="A387" t="n">
         <v>35</v>
       </c>
-      <c r="B387" s="2" t="inlineStr">
+      <c r="B387" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" s="2" t="inlineStr">
+      <c r="C387" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" s="2" t="n">
+      <c r="D387" t="n">
         <v>0</v>
       </c>
-      <c r="E387" s="2" t="inlineStr">
+      <c r="E387" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K387" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L387" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G387" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K387" t="b">
+        <v>1</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="2" t="n">
+      <c r="A388" t="n">
         <v>35</v>
       </c>
-      <c r="B388" s="2" t="inlineStr">
+      <c r="B388" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" s="2" t="inlineStr">
+      <c r="C388" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" s="2" t="inlineStr">
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K388" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L388" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G388" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K388" t="b">
+        <v>1</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="2" t="n">
+      <c r="A389" t="n">
         <v>35</v>
       </c>
-      <c r="B389" s="2" t="inlineStr">
+      <c r="B389" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" s="2" t="inlineStr">
+      <c r="C389" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D389" s="2" t="n">
+      <c r="D389" t="n">
         <v>2</v>
       </c>
-      <c r="E389" s="2" t="inlineStr">
+      <c r="E389" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F389" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K389" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L389" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G389" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K389" t="b">
+        <v>1</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="2" t="n">
+      <c r="A390" t="n">
         <v>35</v>
       </c>
-      <c r="B390" s="2" t="inlineStr">
+      <c r="B390" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C390" s="2" t="inlineStr">
+      <c r="C390" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" s="2" t="n">
+      <c r="D390" t="n">
         <v>3</v>
       </c>
-      <c r="E390" s="2" t="inlineStr">
+      <c r="E390" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K390" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L390" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G390" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K390" t="b">
+        <v>1</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/99/word_level_predictions_99.xlsx
@@ -814,730 +814,730 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" t="n">
         <v>8</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" t="n">
         <v>9</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" t="n">
         <v>11</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>12</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" t="n">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2426,418 +2426,418 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -2894,470 +2894,470 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>4</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>4</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>6</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>4</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" t="n">
         <v>7</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
         <v>4</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -18130,106 +18130,106 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="n">
+      <c r="A341" t="n">
         <v>30</v>
       </c>
-      <c r="B341" s="2" t="inlineStr">
+      <c r="B341" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" s="2" t="inlineStr">
+      <c r="C341" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" s="2" t="n">
+      <c r="D341" t="n">
         <v>2</v>
       </c>
-      <c r="E341" s="2" t="inlineStr">
+      <c r="E341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" s="2" t="inlineStr">
+      <c r="F341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L341" s="2" t="inlineStr">
+      <c r="G341" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" t="b">
+        <v>1</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K341" t="b">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="2" t="n">
+      <c r="A342" t="n">
         <v>30</v>
       </c>
-      <c r="B342" s="2" t="inlineStr">
+      <c r="B342" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" s="2" t="inlineStr">
+      <c r="C342" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" s="2" t="n">
+      <c r="D342" t="n">
         <v>3</v>
       </c>
-      <c r="E342" s="2" t="inlineStr">
+      <c r="E342" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G342" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L342" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K342" t="b">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n">
+      <c r="A387" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B387" t="inlineStr">
+      <c r="B387" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
+      <c r="C387" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" t="n">
+      <c r="D387" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E387" t="inlineStr">
+      <c r="E387" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G387" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K387" t="b">
-        <v>1</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F387" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K387" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L387" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n">
+      <c r="A388" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B388" t="inlineStr">
+      <c r="B388" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
+      <c r="C388" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" t="inlineStr">
+      <c r="D388" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" t="inlineStr">
+      <c r="F388" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K388" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L388" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B389" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C389" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D389" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E389" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G388" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K388" t="b">
-        <v>1</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
+      <c r="F389" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K389" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L389" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B389" t="inlineStr">
+      <c r="B390" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D389" t="n">
-        <v>2</v>
-      </c>
-      <c r="E389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G389" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K389" t="b">
-        <v>1</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>35</v>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr">
+      <c r="C390" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" t="n">
+      <c r="D390" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E390" t="inlineStr">
+      <c r="E390" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G390" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K390" t="b">
-        <v>1</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F390" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K390" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L390" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
